--- a/column_missing_mismatch.xlsx
+++ b/column_missing_mismatch.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10119"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guanruijia/Desktop/Business+Tech/B-T_Entropy/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EBF05A-1F12-9144-9E71-FFBAF9604AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13060"/>
+    <workbookView xWindow="980" yWindow="760" windowWidth="30240" windowHeight="13060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pd_show" sheetId="1" r:id="rId1"/>
@@ -887,14 +893,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -910,345 +910,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1256,345 +933,175 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -1605,7 +1112,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -1633,154 +1140,40 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2038,24 +1431,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K274"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A287" workbookViewId="0">
-      <selection activeCell="D304" sqref="D304"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="16.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.9140625" customWidth="1"/>
+    <col min="1" max="1" width="44.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2087,7 +1480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2122,7 +1515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2157,7 +1550,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2192,7 +1585,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2227,7 +1620,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2262,7 +1655,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2297,7 +1690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2332,7 +1725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2367,7 +1760,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2402,7 +1795,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -2437,7 +1830,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -2472,7 +1865,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -2507,7 +1900,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -2542,7 +1935,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -2577,7 +1970,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -2612,7 +2005,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -2647,7 +2040,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -2682,8 +2075,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2717,7 +2110,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -2752,7 +2145,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -2787,7 +2180,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -2822,7 +2215,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -2857,7 +2250,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -2892,8 +2285,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B25" t="s">
@@ -2927,7 +2320,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -2962,7 +2355,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -2997,7 +2390,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -3032,7 +2425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -3067,7 +2460,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -3102,7 +2495,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -3137,7 +2530,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -3172,7 +2565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -3207,7 +2600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -3242,7 +2635,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -3277,7 +2670,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -3312,7 +2705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -3347,7 +2740,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -3382,7 +2775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -3417,7 +2810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -3452,7 +2845,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -3487,7 +2880,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -3522,7 +2915,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -3557,7 +2950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -3592,7 +2985,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -3627,7 +3020,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -3662,7 +3055,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -3697,7 +3090,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -3732,7 +3125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -3767,7 +3160,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -3802,7 +3195,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -3837,7 +3230,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -3872,7 +3265,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -3907,7 +3300,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -3942,7 +3335,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -3977,7 +3370,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -4012,7 +3405,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>67</v>
       </c>
@@ -4047,7 +3440,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>68</v>
       </c>
@@ -4082,7 +3475,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -4117,7 +3510,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -4152,7 +3545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>71</v>
       </c>
@@ -4187,7 +3580,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>72</v>
       </c>
@@ -4222,7 +3615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>73</v>
       </c>
@@ -4257,7 +3650,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>74</v>
       </c>
@@ -4292,7 +3685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>75</v>
       </c>
@@ -4327,7 +3720,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>76</v>
       </c>
@@ -4362,7 +3755,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>77</v>
       </c>
@@ -4397,7 +3790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>78</v>
       </c>
@@ -4432,7 +3825,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>79</v>
       </c>
@@ -4467,7 +3860,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>80</v>
       </c>
@@ -4502,7 +3895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>81</v>
       </c>
@@ -4537,7 +3930,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>82</v>
       </c>
@@ -4572,7 +3965,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>83</v>
       </c>
@@ -4607,7 +4000,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>84</v>
       </c>
@@ -4642,7 +4035,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>85</v>
       </c>
@@ -4677,7 +4070,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>86</v>
       </c>
@@ -4712,7 +4105,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>87</v>
       </c>
@@ -4747,7 +4140,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>88</v>
       </c>
@@ -4782,7 +4175,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>89</v>
       </c>
@@ -4817,7 +4210,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>90</v>
       </c>
@@ -4852,7 +4245,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>91</v>
       </c>
@@ -4887,7 +4280,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>92</v>
       </c>
@@ -4922,7 +4315,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>93</v>
       </c>
@@ -4957,7 +4350,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>94</v>
       </c>
@@ -4992,7 +4385,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>95</v>
       </c>
@@ -5027,7 +4420,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>96</v>
       </c>
@@ -5062,7 +4455,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>97</v>
       </c>
@@ -5097,7 +4490,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>98</v>
       </c>
@@ -5132,7 +4525,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>99</v>
       </c>
@@ -5167,7 +4560,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>100</v>
       </c>
@@ -5202,7 +4595,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>101</v>
       </c>
@@ -5237,7 +4630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>102</v>
       </c>
@@ -5272,7 +4665,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>103</v>
       </c>
@@ -5307,7 +4700,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>104</v>
       </c>
@@ -5342,7 +4735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>105</v>
       </c>
@@ -5377,7 +4770,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>106</v>
       </c>
@@ -5412,7 +4805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>107</v>
       </c>
@@ -5447,7 +4840,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>108</v>
       </c>
@@ -5482,7 +4875,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>109</v>
       </c>
@@ -5517,7 +4910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>110</v>
       </c>
@@ -5552,7 +4945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>111</v>
       </c>
@@ -5587,7 +4980,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>112</v>
       </c>
@@ -5622,7 +5015,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>113</v>
       </c>
@@ -5657,7 +5050,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>114</v>
       </c>
@@ -5692,7 +5085,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>115</v>
       </c>
@@ -5727,7 +5120,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>116</v>
       </c>
@@ -5762,7 +5155,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>117</v>
       </c>
@@ -5797,7 +5190,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>118</v>
       </c>
@@ -5832,7 +5225,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>119</v>
       </c>
@@ -5867,7 +5260,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>120</v>
       </c>
@@ -5902,7 +5295,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>121</v>
       </c>
@@ -5937,7 +5330,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>122</v>
       </c>
@@ -5972,7 +5365,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>123</v>
       </c>
@@ -6007,7 +5400,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>124</v>
       </c>
@@ -6042,7 +5435,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>125</v>
       </c>
@@ -6077,7 +5470,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>126</v>
       </c>
@@ -6112,7 +5505,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>127</v>
       </c>
@@ -6147,7 +5540,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>128</v>
       </c>
@@ -6182,7 +5575,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>129</v>
       </c>
@@ -6217,7 +5610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>130</v>
       </c>
@@ -6252,7 +5645,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>131</v>
       </c>
@@ -6287,7 +5680,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>132</v>
       </c>
@@ -6322,7 +5715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>133</v>
       </c>
@@ -6357,7 +5750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>134</v>
       </c>
@@ -6392,7 +5785,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>135</v>
       </c>
@@ -6427,7 +5820,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>136</v>
       </c>
@@ -6462,7 +5855,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>137</v>
       </c>
@@ -6497,7 +5890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>138</v>
       </c>
@@ -6532,7 +5925,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>139</v>
       </c>
@@ -6567,7 +5960,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>140</v>
       </c>
@@ -6602,7 +5995,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>141</v>
       </c>
@@ -6637,7 +6030,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>142</v>
       </c>
@@ -6672,7 +6065,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>143</v>
       </c>
@@ -6707,7 +6100,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>144</v>
       </c>
@@ -6742,7 +6135,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>145</v>
       </c>
@@ -6777,7 +6170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>146</v>
       </c>
@@ -6812,7 +6205,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>147</v>
       </c>
@@ -6847,7 +6240,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>148</v>
       </c>
@@ -6882,7 +6275,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>149</v>
       </c>
@@ -6917,7 +6310,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>150</v>
       </c>
@@ -6952,7 +6345,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>151</v>
       </c>
@@ -6987,7 +6380,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>152</v>
       </c>
@@ -7022,7 +6415,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>153</v>
       </c>
@@ -7057,7 +6450,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>154</v>
       </c>
@@ -7092,7 +6485,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>155</v>
       </c>
@@ -7127,7 +6520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>156</v>
       </c>
@@ -7162,7 +6555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>157</v>
       </c>
@@ -7197,7 +6590,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>158</v>
       </c>
@@ -7232,7 +6625,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>159</v>
       </c>
@@ -7267,7 +6660,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>160</v>
       </c>
@@ -7302,7 +6695,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>161</v>
       </c>
@@ -7337,7 +6730,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>162</v>
       </c>
@@ -7372,7 +6765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>163</v>
       </c>
@@ -7407,7 +6800,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>164</v>
       </c>
@@ -7442,7 +6835,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>165</v>
       </c>
@@ -7477,7 +6870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>166</v>
       </c>
@@ -7512,7 +6905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>167</v>
       </c>
@@ -7547,7 +6940,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>168</v>
       </c>
@@ -7582,7 +6975,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>169</v>
       </c>
@@ -7617,7 +7010,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>170</v>
       </c>
@@ -7652,7 +7045,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>171</v>
       </c>
@@ -7687,7 +7080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>172</v>
       </c>
@@ -7722,7 +7115,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>173</v>
       </c>
@@ -7757,7 +7150,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>174</v>
       </c>
@@ -7792,7 +7185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>175</v>
       </c>
@@ -7827,7 +7220,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>176</v>
       </c>
@@ -7862,7 +7255,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>177</v>
       </c>
@@ -7897,7 +7290,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>178</v>
       </c>
@@ -7932,7 +7325,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>179</v>
       </c>
@@ -7967,7 +7360,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>180</v>
       </c>
@@ -8002,7 +7395,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>181</v>
       </c>
@@ -8037,7 +7430,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>182</v>
       </c>
@@ -8072,7 +7465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>183</v>
       </c>
@@ -8107,7 +7500,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>184</v>
       </c>
@@ -8142,7 +7535,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>185</v>
       </c>
@@ -8177,7 +7570,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>186</v>
       </c>
@@ -8212,7 +7605,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>187</v>
       </c>
@@ -8247,7 +7640,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>188</v>
       </c>
@@ -8282,7 +7675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>189</v>
       </c>
@@ -8317,7 +7710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>190</v>
       </c>
@@ -8352,7 +7745,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>191</v>
       </c>
@@ -8387,7 +7780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>192</v>
       </c>
@@ -8422,7 +7815,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>193</v>
       </c>
@@ -8457,7 +7850,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>194</v>
       </c>
@@ -8492,7 +7885,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>195</v>
       </c>
@@ -8527,7 +7920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>196</v>
       </c>
@@ -8562,7 +7955,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>197</v>
       </c>
@@ -8597,7 +7990,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>198</v>
       </c>
@@ -8632,7 +8025,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>199</v>
       </c>
@@ -8667,7 +8060,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>200</v>
       </c>
@@ -8702,7 +8095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>201</v>
       </c>
@@ -8737,7 +8130,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>202</v>
       </c>
@@ -8772,7 +8165,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>203</v>
       </c>
@@ -8807,7 +8200,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>204</v>
       </c>
@@ -8842,7 +8235,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>205</v>
       </c>
@@ -8877,7 +8270,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>206</v>
       </c>
@@ -8912,7 +8305,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>207</v>
       </c>
@@ -8947,7 +8340,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>208</v>
       </c>
@@ -8982,7 +8375,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>209</v>
       </c>
@@ -9017,7 +8410,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>210</v>
       </c>
@@ -9052,7 +8445,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>211</v>
       </c>
@@ -9087,7 +8480,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>212</v>
       </c>
@@ -9122,7 +8515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>213</v>
       </c>
@@ -9157,7 +8550,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>214</v>
       </c>
@@ -9192,7 +8585,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>215</v>
       </c>
@@ -9227,7 +8620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>216</v>
       </c>
@@ -9262,7 +8655,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>217</v>
       </c>
@@ -9297,7 +8690,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>218</v>
       </c>
@@ -9332,7 +8725,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>219</v>
       </c>
@@ -9367,7 +8760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>220</v>
       </c>
@@ -9402,7 +8795,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>221</v>
       </c>
@@ -9437,7 +8830,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>222</v>
       </c>
@@ -9472,7 +8865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>223</v>
       </c>
@@ -9507,7 +8900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>224</v>
       </c>
@@ -9542,7 +8935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>225</v>
       </c>
@@ -9577,7 +8970,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>226</v>
       </c>
@@ -9612,7 +9005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>227</v>
       </c>
@@ -9647,7 +9040,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>228</v>
       </c>
@@ -9682,7 +9075,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>229</v>
       </c>
@@ -9717,7 +9110,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>230</v>
       </c>
@@ -9752,7 +9145,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>231</v>
       </c>
@@ -9787,7 +9180,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>232</v>
       </c>
@@ -9822,7 +9215,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>233</v>
       </c>
@@ -9857,7 +9250,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>234</v>
       </c>
@@ -9892,7 +9285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>235</v>
       </c>
@@ -9927,7 +9320,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>236</v>
       </c>
@@ -9962,7 +9355,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>237</v>
       </c>
@@ -9997,7 +9390,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>238</v>
       </c>
@@ -10032,7 +9425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>239</v>
       </c>
@@ -10067,7 +9460,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>240</v>
       </c>
@@ -10102,7 +9495,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>241</v>
       </c>
@@ -10137,7 +9530,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>242</v>
       </c>
@@ -10172,7 +9565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="233" spans="1:11">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>243</v>
       </c>
@@ -10207,7 +9600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>244</v>
       </c>
@@ -10242,7 +9635,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>245</v>
       </c>
@@ -10277,7 +9670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>246</v>
       </c>
@@ -10312,7 +9705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>247</v>
       </c>
@@ -10347,7 +9740,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>248</v>
       </c>
@@ -10382,7 +9775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>249</v>
       </c>
@@ -10417,7 +9810,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>250</v>
       </c>
@@ -10452,7 +9845,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>251</v>
       </c>
@@ -10487,7 +9880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="242" spans="1:11">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>252</v>
       </c>
@@ -10522,7 +9915,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>253</v>
       </c>
@@ -10557,7 +9950,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>254</v>
       </c>
@@ -10592,7 +9985,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>255</v>
       </c>
@@ -10627,7 +10020,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>256</v>
       </c>
@@ -10662,7 +10055,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>257</v>
       </c>
@@ -10697,7 +10090,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>258</v>
       </c>
@@ -10732,7 +10125,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>259</v>
       </c>
@@ -10767,7 +10160,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>260</v>
       </c>
@@ -10802,7 +10195,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="251" spans="1:11">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>261</v>
       </c>
@@ -10837,7 +10230,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="252" spans="1:11">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>262</v>
       </c>
@@ -10872,7 +10265,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="253" spans="1:11">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>263</v>
       </c>
@@ -10907,7 +10300,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>264</v>
       </c>
@@ -10942,7 +10335,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>265</v>
       </c>
@@ -10977,7 +10370,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>266</v>
       </c>
@@ -11012,7 +10405,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>267</v>
       </c>
@@ -11047,7 +10440,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="258" spans="1:11">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>268</v>
       </c>
@@ -11082,7 +10475,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="259" spans="1:11">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>269</v>
       </c>
@@ -11117,7 +10510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>270</v>
       </c>
@@ -11152,7 +10545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="261" spans="1:11">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>271</v>
       </c>
@@ -11187,7 +10580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="262" spans="1:11">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>272</v>
       </c>
@@ -11222,7 +10615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="1:11">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>273</v>
       </c>
@@ -11257,7 +10650,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="264" spans="1:11">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>274</v>
       </c>
@@ -11292,7 +10685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="265" spans="1:11">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>275</v>
       </c>
@@ -11327,7 +10720,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>276</v>
       </c>
@@ -11362,7 +10755,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="267" spans="1:11">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>277</v>
       </c>
@@ -11397,7 +10790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="268" spans="1:11">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>278</v>
       </c>
@@ -11432,7 +10825,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="269" spans="1:11">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>279</v>
       </c>
@@ -11467,7 +10860,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>280</v>
       </c>
@@ -11502,7 +10895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="271" spans="1:11">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>281</v>
       </c>
@@ -11537,7 +10930,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="272" spans="1:11">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>282</v>
       </c>
@@ -11572,7 +10965,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="273" spans="1:11">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>283</v>
       </c>
@@ -11607,7 +11000,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="274" spans="1:11">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>284</v>
       </c>
@@ -11644,6 +11037,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>